--- a/biology/Botanique/Toompuiestee/Toompuiestee.xlsx
+++ b/biology/Botanique/Toompuiestee/Toompuiestee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le boulevard Toom (estonien : Toompuiestee) est une rue du nord de Tallinn en Estonie[1].
+Le boulevard Toom (estonien : Toompuiestee) est une rue du nord de Tallinn en Estonie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toompuiestee part de Tõnismäe, longe le côté ouest de Toompea, traverse le quartier de Kelmiküla et se termine devant la gare de Tallinn-Baltique.
 Toompuiestee croise Tõnismäe, la rue Endla tänav, la rue Luise, la rue Wismari tänav, la rue Amandus Adamsoni tänav, la route Paldiski mnt, la route Falgi, la rue Sügise, la rue Tehnika tänav et se termine à son intersection avec Nunne tänav à la Place des tours.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
